--- a/Data/Processing/2024-02-02/TCS.xlsx
+++ b/Data/Processing/2024-02-02/TCS.xlsx
@@ -816,7 +816,7 @@
         <v>3455.01</v>
       </c>
       <c r="C6">
-        <v>3487.06</v>
+        <v>3487.05</v>
       </c>
       <c r="D6">
         <v>3445.48</v>
@@ -1022,7 +1022,7 @@
         <v>3401.1</v>
       </c>
       <c r="E10">
-        <v>3460.56</v>
+        <v>3460.57</v>
       </c>
       <c r="F10">
         <v>3440.37</v>
@@ -1075,7 +1075,7 @@
         <v>3497.33</v>
       </c>
       <c r="F11">
-        <v>3460.56</v>
+        <v>3460.57</v>
       </c>
       <c r="G11">
         <v>1618931</v>
@@ -1093,7 +1093,7 @@
         <v>-0.01</v>
       </c>
       <c r="L11">
-        <v>6.44</v>
+        <v>6.43</v>
       </c>
       <c r="M11">
         <v>-0.4700000000000001</v>
@@ -1816,7 +1816,7 @@
         <v>3256.36</v>
       </c>
       <c r="C26">
-        <v>3280.3</v>
+        <v>3280.29</v>
       </c>
       <c r="D26">
         <v>3233.85</v>
@@ -2163,7 +2163,7 @@
         <v>45006</v>
       </c>
       <c r="B33">
-        <v>3089.65</v>
+        <v>3089.66</v>
       </c>
       <c r="C33">
         <v>3102.88</v>
@@ -2193,7 +2193,7 @@
         <v>-1.48</v>
       </c>
       <c r="L33">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>0.28</v>
@@ -2763,7 +2763,7 @@
         <v>45027</v>
       </c>
       <c r="B45">
-        <v>3208.3</v>
+        <v>3208.29</v>
       </c>
       <c r="C45">
         <v>3217.09</v>
@@ -2793,7 +2793,7 @@
         <v>-2.25</v>
       </c>
       <c r="L45">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="M45">
         <v>0.6899999999999999</v>
@@ -2802,7 +2802,7 @@
         <v>2.48</v>
       </c>
       <c r="O45">
-        <v>3267.360454545454</v>
+        <v>3267.360681818182</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>1.92</v>
       </c>
       <c r="O46">
-        <v>3261.984545454546</v>
+        <v>3261.984772727273</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>1.56</v>
       </c>
       <c r="O47">
-        <v>3255.928409090909</v>
+        <v>3255.928636363637</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>2.97</v>
       </c>
       <c r="O48">
-        <v>3248.488181818182</v>
+        <v>3248.488409090909</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1.47</v>
       </c>
       <c r="O49">
-        <v>3239.790454545454</v>
+        <v>3239.790681818182</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>2.19</v>
       </c>
       <c r="O50">
-        <v>3229.709772727273</v>
+        <v>3229.71</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>1.13</v>
       </c>
       <c r="O51">
-        <v>3220.042272727273</v>
+        <v>3220.0425</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>2.05</v>
       </c>
       <c r="O52">
-        <v>3212.859090909091</v>
+        <v>3212.859318181818</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>1.74</v>
       </c>
       <c r="O53">
-        <v>3205.592045454546</v>
+        <v>3205.592272727273</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>0.9</v>
       </c>
       <c r="O56">
-        <v>3182.856136363637</v>
+        <v>3182.856136363636</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>0.97</v>
       </c>
       <c r="O57">
-        <v>3176.868181818182</v>
+        <v>3176.868181818181</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>3197.09</v>
       </c>
       <c r="C63">
-        <v>3241.72</v>
+        <v>3241.71</v>
       </c>
       <c r="D63">
         <v>3190.6</v>
@@ -3902,7 +3902,7 @@
         <v>1.33</v>
       </c>
       <c r="O67">
-        <v>3148.948636363636</v>
+        <v>3148.948636363637</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -4252,7 +4252,7 @@
         <v>1.26</v>
       </c>
       <c r="O74">
-        <v>3145.588636363636</v>
+        <v>3145.588636363637</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>1.79</v>
       </c>
       <c r="O77">
-        <v>3157.072045454545</v>
+        <v>3157.072045454546</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>0.77</v>
       </c>
       <c r="O78">
-        <v>3161.213636363636</v>
+        <v>3161.213636363637</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -4752,7 +4752,7 @@
         <v>1.16</v>
       </c>
       <c r="O84">
-        <v>3181.030227272727</v>
+        <v>3181.030227272728</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>3125.21</v>
       </c>
       <c r="E91">
-        <v>3143.92</v>
+        <v>3143.93</v>
       </c>
       <c r="F91">
         <v>3184.92</v>
@@ -5102,7 +5102,7 @@
         <v>1.36</v>
       </c>
       <c r="O91">
-        <v>3182.324318181818</v>
+        <v>3182.324545454545</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -5125,7 +5125,7 @@
         <v>3179.08</v>
       </c>
       <c r="F92">
-        <v>3143.92</v>
+        <v>3143.93</v>
       </c>
       <c r="G92">
         <v>1468186</v>
@@ -5143,7 +5143,7 @@
         <v>-0.47</v>
       </c>
       <c r="L92">
-        <v>14.96</v>
+        <v>14.95</v>
       </c>
       <c r="M92">
         <v>-0.13</v>
@@ -5152,7 +5152,7 @@
         <v>1.25</v>
       </c>
       <c r="O92">
-        <v>3184.441590909091</v>
+        <v>3184.441818181818</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -5202,7 +5202,7 @@
         <v>0.98</v>
       </c>
       <c r="O93">
-        <v>3187.143636363637</v>
+        <v>3187.143863636364</v>
       </c>
       <c r="P93">
         <v>1</v>
@@ -5252,7 +5252,7 @@
         <v>1.15</v>
       </c>
       <c r="O94">
-        <v>3191.451363636363</v>
+        <v>3191.451590909091</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>1.15</v>
       </c>
       <c r="O95">
-        <v>3194.976136363636</v>
+        <v>3194.976363636364</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>1.24</v>
       </c>
       <c r="O96">
-        <v>3196.750227272727</v>
+        <v>3196.750454545455</v>
       </c>
       <c r="P96">
         <v>1</v>
@@ -5402,7 +5402,7 @@
         <v>1.28</v>
       </c>
       <c r="O97">
-        <v>3197.611818181818</v>
+        <v>3197.612045454546</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>0.85</v>
       </c>
       <c r="O98">
-        <v>3198.62</v>
+        <v>3198.620227272727</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="O99">
-        <v>3199.133409090909</v>
+        <v>3199.133636363636</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -5552,7 +5552,7 @@
         <v>2.98</v>
       </c>
       <c r="O100">
-        <v>3202.235454545454</v>
+        <v>3202.235681818182</v>
       </c>
       <c r="P100">
         <v>1</v>
@@ -5602,7 +5602,7 @@
         <v>1.51</v>
       </c>
       <c r="O101">
-        <v>3203.96409090909</v>
+        <v>3203.964318181819</v>
       </c>
       <c r="P101">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>1.15</v>
       </c>
       <c r="O102">
-        <v>3206.512045454545</v>
+        <v>3206.512272727272</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>0.72</v>
       </c>
       <c r="O103">
-        <v>3210.192272727273</v>
+        <v>3210.192499999999</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -5752,7 +5752,7 @@
         <v>0.8</v>
       </c>
       <c r="O104">
-        <v>3213.027500000001</v>
+        <v>3213.027727272727</v>
       </c>
       <c r="P104">
         <v>0</v>
@@ -5763,13 +5763,13 @@
         <v>45114</v>
       </c>
       <c r="B105">
-        <v>3269.78</v>
+        <v>3269.79</v>
       </c>
       <c r="C105">
         <v>3324.15</v>
       </c>
       <c r="D105">
-        <v>3269.78</v>
+        <v>3269.79</v>
       </c>
       <c r="E105">
         <v>3296.77</v>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="L105">
-        <v>-20.7</v>
+        <v>-20.69</v>
       </c>
       <c r="M105">
         <v>-0.82</v>
@@ -5802,7 +5802,7 @@
         <v>1.66</v>
       </c>
       <c r="O105">
-        <v>3215.782272727272</v>
+        <v>3215.7825</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -5852,7 +5852,7 @@
         <v>1.79</v>
       </c>
       <c r="O106">
-        <v>3216.802954545454</v>
+        <v>3216.803181818183</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -5902,7 +5902,7 @@
         <v>1.04</v>
       </c>
       <c r="O107">
-        <v>3217.104090909091</v>
+        <v>3217.104318181818</v>
       </c>
       <c r="P107">
         <v>0</v>
@@ -5952,7 +5952,7 @@
         <v>1.19</v>
       </c>
       <c r="O108">
-        <v>3217.044772727273</v>
+        <v>3217.045</v>
       </c>
       <c r="P108">
         <v>0</v>
@@ -6002,7 +6002,7 @@
         <v>2.88</v>
       </c>
       <c r="O109">
-        <v>3218.904318181818</v>
+        <v>3218.904545454546</v>
       </c>
       <c r="P109">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>5.14</v>
       </c>
       <c r="O110">
-        <v>3224.8575</v>
+        <v>3224.857727272727</v>
       </c>
       <c r="P110">
         <v>0</v>
@@ -6102,7 +6102,7 @@
         <v>2.08</v>
       </c>
       <c r="O111">
-        <v>3230.724090909091</v>
+        <v>3230.724318181818</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>1.7</v>
       </c>
       <c r="O112">
-        <v>3236.6375</v>
+        <v>3236.637727272727</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -6202,7 +6202,7 @@
         <v>2.03</v>
       </c>
       <c r="O113">
-        <v>3243.0525</v>
+        <v>3243.052727272727</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1.24</v>
       </c>
       <c r="O114">
-        <v>3249.715909090909</v>
+        <v>3249.716136363636</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -6302,7 +6302,7 @@
         <v>2.23</v>
       </c>
       <c r="O115">
-        <v>3253.721818181818</v>
+        <v>3253.722045454546</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -6352,7 +6352,7 @@
         <v>1.22</v>
       </c>
       <c r="O116">
-        <v>3256.630227272728</v>
+        <v>3256.630454545455</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -6402,7 +6402,7 @@
         <v>0.78</v>
       </c>
       <c r="O117">
-        <v>3259.674772727273</v>
+        <v>3259.675</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>1.05</v>
       </c>
       <c r="O118">
-        <v>3262.333863636364</v>
+        <v>3262.334090909091</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>0.78</v>
       </c>
       <c r="O119">
-        <v>3265.407045454545</v>
+        <v>3265.407272727273</v>
       </c>
       <c r="P119">
         <v>0</v>
@@ -6552,7 +6552,7 @@
         <v>1.85</v>
       </c>
       <c r="O120">
-        <v>3266.752727272727</v>
+        <v>3266.752954545454</v>
       </c>
       <c r="P120">
         <v>0</v>
@@ -6602,7 +6602,7 @@
         <v>1.95</v>
       </c>
       <c r="O121">
-        <v>3269.78</v>
+        <v>3269.780227272727</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>1.32</v>
       </c>
       <c r="O122">
-        <v>3273.590454545454</v>
+        <v>3273.590681818182</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -6702,7 +6702,7 @@
         <v>0.95</v>
       </c>
       <c r="O123">
-        <v>3277.74</v>
+        <v>3277.740227272727</v>
       </c>
       <c r="P123">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>1.91</v>
       </c>
       <c r="O124">
-        <v>3280.200454545454</v>
+        <v>3280.200681818182</v>
       </c>
       <c r="P124">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>2.05</v>
       </c>
       <c r="O125">
-        <v>3284.055681818181</v>
+        <v>3284.05590909091</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>1.35</v>
       </c>
       <c r="O126">
-        <v>3289.197954545454</v>
+        <v>3289.198181818182</v>
       </c>
       <c r="P126">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>0.96</v>
       </c>
       <c r="O127">
-        <v>3295.301136363637</v>
+        <v>3295.301363636364</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -6952,7 +6952,7 @@
         <v>1.21</v>
       </c>
       <c r="O128">
-        <v>3300.27</v>
+        <v>3300.270227272727</v>
       </c>
       <c r="P128">
         <v>0</v>
@@ -7002,7 +7002,7 @@
         <v>1.01</v>
       </c>
       <c r="O129">
-        <v>3305.637272727273</v>
+        <v>3305.6375</v>
       </c>
       <c r="P129">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>1.53</v>
       </c>
       <c r="O130">
-        <v>3311.762272727273</v>
+        <v>3311.7625</v>
       </c>
       <c r="P130">
         <v>0</v>
@@ -7102,7 +7102,7 @@
         <v>1.28</v>
       </c>
       <c r="O131">
-        <v>3317.071136363636</v>
+        <v>3317.071363636364</v>
       </c>
       <c r="P131">
         <v>0</v>
@@ -7152,7 +7152,7 @@
         <v>0.89</v>
       </c>
       <c r="O132">
-        <v>3322.644318181818</v>
+        <v>3322.644545454546</v>
       </c>
       <c r="P132">
         <v>0</v>
@@ -7202,7 +7202,7 @@
         <v>1.38</v>
       </c>
       <c r="O133">
-        <v>3327.542272727273</v>
+        <v>3327.5425</v>
       </c>
       <c r="P133">
         <v>0</v>
@@ -7252,7 +7252,7 @@
         <v>1.57</v>
       </c>
       <c r="O134">
-        <v>3331.133181818182</v>
+        <v>3331.133409090909</v>
       </c>
       <c r="P134">
         <v>0</v>
@@ -7402,7 +7402,7 @@
         <v>0.77</v>
       </c>
       <c r="O137">
-        <v>3344.53590909091</v>
+        <v>3344.535909090909</v>
       </c>
       <c r="P137">
         <v>0</v>
@@ -7502,7 +7502,7 @@
         <v>1.05</v>
       </c>
       <c r="O139">
-        <v>3351.061590909092</v>
+        <v>3351.061590909091</v>
       </c>
       <c r="P139">
         <v>1</v>
@@ -7552,7 +7552,7 @@
         <v>1</v>
       </c>
       <c r="O140">
-        <v>3354.842045454546</v>
+        <v>3354.842045454545</v>
       </c>
       <c r="P140">
         <v>1</v>
@@ -7569,10 +7569,10 @@
         <v>3365.21</v>
       </c>
       <c r="D141">
-        <v>3340.84</v>
+        <v>3340.83</v>
       </c>
       <c r="E141">
-        <v>3351.91</v>
+        <v>3351.9</v>
       </c>
       <c r="F141">
         <v>3351.31</v>
@@ -7584,7 +7584,7 @@
         <v>37</v>
       </c>
       <c r="I141">
-        <v>-0.14</v>
+        <v>-0.15</v>
       </c>
       <c r="J141">
         <v>0.25</v>
@@ -7596,13 +7596,13 @@
         <v>5.46</v>
       </c>
       <c r="M141">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="N141">
         <v>0.73</v>
       </c>
       <c r="O141">
-        <v>3359.237045454546</v>
+        <v>3359.236818181818</v>
       </c>
       <c r="P141">
         <v>1</v>
@@ -7625,7 +7625,7 @@
         <v>3366.6</v>
       </c>
       <c r="F142">
-        <v>3351.91</v>
+        <v>3351.9</v>
       </c>
       <c r="G142">
         <v>1188200</v>
@@ -7643,7 +7643,7 @@
         <v>-0.44</v>
       </c>
       <c r="L142">
-        <v>21.69</v>
+        <v>21.7</v>
       </c>
       <c r="M142">
         <v>0.23</v>
@@ -7652,7 +7652,7 @@
         <v>0.74</v>
       </c>
       <c r="O142">
-        <v>3363.7925</v>
+        <v>3363.792272727273</v>
       </c>
       <c r="P142">
         <v>1</v>
@@ -7702,7 +7702,7 @@
         <v>2.17</v>
       </c>
       <c r="O143">
-        <v>3367.577272727272</v>
+        <v>3367.577045454546</v>
       </c>
       <c r="P143">
         <v>1</v>
@@ -7752,7 +7752,7 @@
         <v>0.96</v>
       </c>
       <c r="O144">
-        <v>3369.506818181818</v>
+        <v>3369.506590909091</v>
       </c>
       <c r="P144">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>1.86</v>
       </c>
       <c r="O145">
-        <v>3372.997272727273</v>
+        <v>3372.997045454546</v>
       </c>
       <c r="P145">
         <v>1</v>
@@ -7852,7 +7852,7 @@
         <v>1.22</v>
       </c>
       <c r="O146">
-        <v>3375.909772727273</v>
+        <v>3375.909545454546</v>
       </c>
       <c r="P146">
         <v>0</v>
@@ -7902,7 +7902,7 @@
         <v>1.33</v>
       </c>
       <c r="O147">
-        <v>3378.585</v>
+        <v>3378.584772727273</v>
       </c>
       <c r="P147">
         <v>1</v>
@@ -7952,7 +7952,7 @@
         <v>1.1</v>
       </c>
       <c r="O148">
-        <v>3381.765909090909</v>
+        <v>3381.765681818182</v>
       </c>
       <c r="P148">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0.87</v>
       </c>
       <c r="O149">
-        <v>3384.502500000001</v>
+        <v>3384.502272727273</v>
       </c>
       <c r="P149">
         <v>0</v>
@@ -8052,7 +8052,7 @@
         <v>1.18</v>
       </c>
       <c r="O150">
-        <v>3389.402954545455</v>
+        <v>3389.402727272727</v>
       </c>
       <c r="P150">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>3.06</v>
       </c>
       <c r="O151">
-        <v>3396.553409090909</v>
+        <v>3396.553181818183</v>
       </c>
       <c r="P151">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>1.23</v>
       </c>
       <c r="O152">
-        <v>3403.692727272728</v>
+        <v>3403.6925</v>
       </c>
       <c r="P152">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1.46</v>
       </c>
       <c r="O153">
-        <v>3408.840909090909</v>
+        <v>3408.840681818182</v>
       </c>
       <c r="P153">
         <v>0</v>
@@ -8216,7 +8216,7 @@
         <v>3542.23</v>
       </c>
       <c r="C154">
-        <v>3581.44</v>
+        <v>3581.45</v>
       </c>
       <c r="D154">
         <v>3536.87</v>
@@ -8237,7 +8237,7 @@
         <v>0.85</v>
       </c>
       <c r="J154">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K154">
         <v>-0.15</v>
@@ -8246,13 +8246,13 @@
         <v>7.75</v>
       </c>
       <c r="M154">
-        <v>-0.2400000000000001</v>
+        <v>-0.2500000000000001</v>
       </c>
       <c r="N154">
         <v>1.26</v>
       </c>
       <c r="O154">
-        <v>3410.93409090909</v>
+        <v>3410.933863636364</v>
       </c>
       <c r="P154">
         <v>0</v>
@@ -8302,7 +8302,7 @@
         <v>1.23</v>
       </c>
       <c r="O155">
-        <v>3413.720909090909</v>
+        <v>3413.720681818182</v>
       </c>
       <c r="P155">
         <v>0</v>
@@ -8352,7 +8352,7 @@
         <v>1.26</v>
       </c>
       <c r="O156">
-        <v>3416.389545454546</v>
+        <v>3416.389318181818</v>
       </c>
       <c r="P156">
         <v>0</v>
@@ -8402,7 +8402,7 @@
         <v>2.15</v>
       </c>
       <c r="O157">
-        <v>3419.192954545455</v>
+        <v>3419.192727272728</v>
       </c>
       <c r="P157">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>1.92</v>
       </c>
       <c r="O158">
-        <v>3422.359772727272</v>
+        <v>3422.359545454546</v>
       </c>
       <c r="P158">
         <v>0</v>
@@ -8502,7 +8502,7 @@
         <v>1.7</v>
       </c>
       <c r="O159">
-        <v>3427.072272727273</v>
+        <v>3427.072045454545</v>
       </c>
       <c r="P159">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>1.65</v>
       </c>
       <c r="O160">
-        <v>3431.380909090909</v>
+        <v>3431.380681818182</v>
       </c>
       <c r="P160">
         <v>0</v>
@@ -8602,7 +8602,7 @@
         <v>1.62</v>
       </c>
       <c r="O161">
-        <v>3435.671363636364</v>
+        <v>3435.671136363636</v>
       </c>
       <c r="P161">
         <v>0</v>
@@ -8652,7 +8652,7 @@
         <v>2.1</v>
       </c>
       <c r="O162">
-        <v>3439.020909090909</v>
+        <v>3439.020681818182</v>
       </c>
       <c r="P162">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>1.78</v>
       </c>
       <c r="O163">
-        <v>3441.9925</v>
+        <v>3441.992272727273</v>
       </c>
       <c r="P163">
         <v>0</v>
@@ -8752,7 +8752,7 @@
         <v>1.53</v>
       </c>
       <c r="O164">
-        <v>3445.567954545455</v>
+        <v>3445.567727272728</v>
       </c>
       <c r="P164">
         <v>0</v>
@@ -8802,7 +8802,7 @@
         <v>2.03</v>
       </c>
       <c r="O165">
-        <v>3448.192045454545</v>
+        <v>3448.191818181818</v>
       </c>
       <c r="P165">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>2.05</v>
       </c>
       <c r="O166">
-        <v>3451.29</v>
+        <v>3451.289772727273</v>
       </c>
       <c r="P166">
         <v>0</v>
@@ -8902,7 +8902,7 @@
         <v>1.67</v>
       </c>
       <c r="O167">
-        <v>3455.36840909091</v>
+        <v>3455.368181818181</v>
       </c>
       <c r="P167">
         <v>0</v>
@@ -8952,7 +8952,7 @@
         <v>1.32</v>
       </c>
       <c r="O168">
-        <v>3460.747727272728</v>
+        <v>3460.747499999999</v>
       </c>
       <c r="P168">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>1.28</v>
       </c>
       <c r="O169">
-        <v>3464.93</v>
+        <v>3464.929772727272</v>
       </c>
       <c r="P169">
         <v>0</v>
@@ -9052,7 +9052,7 @@
         <v>1.23</v>
       </c>
       <c r="O170">
-        <v>3467.769772727273</v>
+        <v>3467.769545454545</v>
       </c>
       <c r="P170">
         <v>0</v>
@@ -9102,7 +9102,7 @@
         <v>1.41</v>
       </c>
       <c r="O171">
-        <v>3469.393181818181</v>
+        <v>3469.392954545455</v>
       </c>
       <c r="P171">
         <v>0</v>
@@ -9152,7 +9152,7 @@
         <v>1.47</v>
       </c>
       <c r="O172">
-        <v>3471.837954545455</v>
+        <v>3471.837727272728</v>
       </c>
       <c r="P172">
         <v>0</v>
@@ -9202,7 +9202,7 @@
         <v>1.56</v>
       </c>
       <c r="O173">
-        <v>3473.687045454545</v>
+        <v>3473.686818181818</v>
       </c>
       <c r="P173">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>0.87</v>
       </c>
       <c r="O174">
-        <v>3475.001363636364</v>
+        <v>3475.001136363637</v>
       </c>
       <c r="P174">
         <v>0</v>
@@ -9302,7 +9302,7 @@
         <v>1.1</v>
       </c>
       <c r="O175">
-        <v>3475.845227272727</v>
+        <v>3475.845</v>
       </c>
       <c r="P175">
         <v>1</v>
@@ -9352,7 +9352,7 @@
         <v>0.72</v>
       </c>
       <c r="O176">
-        <v>3475.985000000001</v>
+        <v>3475.984772727272</v>
       </c>
       <c r="P176">
         <v>0</v>
@@ -9402,7 +9402,7 @@
         <v>1.61</v>
       </c>
       <c r="O177">
-        <v>3477.515681818182</v>
+        <v>3477.515454545454</v>
       </c>
       <c r="P177">
         <v>1</v>
@@ -9452,7 +9452,7 @@
         <v>2.24</v>
       </c>
       <c r="O178">
-        <v>3478.686136363636</v>
+        <v>3478.685909090909</v>
       </c>
       <c r="P178">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1.41</v>
       </c>
       <c r="O179">
-        <v>3478.62340909091</v>
+        <v>3478.623181818181</v>
       </c>
       <c r="P179">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>1.3</v>
       </c>
       <c r="O180">
-        <v>3477.793863636363</v>
+        <v>3477.793636363637</v>
       </c>
       <c r="P180">
         <v>0</v>
@@ -9602,7 +9602,7 @@
         <v>0.75</v>
       </c>
       <c r="O181">
-        <v>3476.922045454545</v>
+        <v>3476.921818181818</v>
       </c>
       <c r="P181">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>1.47</v>
       </c>
       <c r="O182">
-        <v>3476.911818181818</v>
+        <v>3476.911590909091</v>
       </c>
       <c r="P182">
         <v>0</v>
@@ -9702,7 +9702,7 @@
         <v>1.44</v>
       </c>
       <c r="O183">
-        <v>3476.825227272727</v>
+        <v>3476.825</v>
       </c>
       <c r="P183">
         <v>0</v>
@@ -9752,7 +9752,7 @@
         <v>1.81</v>
       </c>
       <c r="O184">
-        <v>3476.00659090909</v>
+        <v>3476.006363636363</v>
       </c>
       <c r="P184">
         <v>0</v>
@@ -9802,7 +9802,7 @@
         <v>0.98</v>
       </c>
       <c r="O185">
-        <v>3475.840454545454</v>
+        <v>3475.840454545455</v>
       </c>
       <c r="P185">
         <v>0</v>
@@ -9952,7 +9952,7 @@
         <v>1.13</v>
       </c>
       <c r="O188">
-        <v>3475.858181818181</v>
+        <v>3475.858181818182</v>
       </c>
       <c r="P188">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>3.36</v>
       </c>
       <c r="O194">
-        <v>3468.933636363636</v>
+        <v>3468.933636363637</v>
       </c>
       <c r="P194">
         <v>1</v>
@@ -10702,7 +10702,7 @@
         <v>1.02</v>
       </c>
       <c r="O203">
-        <v>3453.036363636363</v>
+        <v>3453.036363636364</v>
       </c>
       <c r="P203">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>1.85</v>
       </c>
       <c r="O211">
-        <v>3459.535227272727</v>
+        <v>3459.535227272728</v>
       </c>
       <c r="P211">
         <v>0</v>
@@ -12280,7 +12280,7 @@
         <v>1.88</v>
       </c>
       <c r="O230">
-        <v>3590.413636363637</v>
+        <v>3590.413636363636</v>
       </c>
       <c r="P230">
         <v>0</v>
@@ -12815,7 +12815,7 @@
         <v>1.11</v>
       </c>
       <c r="O235">
-        <v>3642.068636363637</v>
+        <v>3642.068636363636</v>
       </c>
       <c r="P235">
         <v>0</v>
@@ -13029,7 +13029,7 @@
         <v>1.2</v>
       </c>
       <c r="O237">
-        <v>3665.852727272728</v>
+        <v>3665.852727272727</v>
       </c>
       <c r="P237">
         <v>0</v>
@@ -13243,7 +13243,7 @@
         <v>0</v>
       </c>
       <c r="O239">
-        <v>3686.718181818181</v>
+        <v>3686.718181818182</v>
       </c>
       <c r="P239">
         <v>0</v>
@@ -13293,7 +13293,7 @@
         <v>2.34</v>
       </c>
       <c r="O240">
-        <v>3694.783636363636</v>
+        <v>3694.783636363637</v>
       </c>
       <c r="P240">
         <v>0</v>
@@ -13400,7 +13400,7 @@
         <v>2.01</v>
       </c>
       <c r="O241">
-        <v>3702.687954545455</v>
+        <v>3702.687954545454</v>
       </c>
       <c r="P241">
         <v>0</v>
